--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -847,12 +847,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -940,12 +940,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1312,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>5</v>
@@ -1392,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U11">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1485,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U12">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="T13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1684,12 +1684,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2242,12 +2242,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2335,12 +2335,12 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2428,12 +2428,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Icing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2795,12 +2795,12 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2888,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3234,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U31">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3248,14 +3248,9 @@
       <c r="W31">
         <v>1</v>
       </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3338,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3426,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3524,12 +3519,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3617,12 +3612,12 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>3</v>
@@ -3697,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U36">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3710,12 +3705,12 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Flow- Scour,Icing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3803,12 +3798,12 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3896,12 +3891,12 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Flow- Scour</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -3989,12 +3984,12 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -4069,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U40">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4082,12 +4077,12 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -4162,10 +4157,10 @@
         <v>3</v>
       </c>
       <c r="T41">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U41">
-        <v>0.4222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4175,12 +4170,12 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4268,12 +4263,12 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4356,12 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4454,12 +4449,12 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4547,12 +4542,12 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -4627,10 +4622,10 @@
         <v>2</v>
       </c>
       <c r="T46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U46">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4640,12 +4635,12 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4728,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4821,12 +4816,12 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4898,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U49">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -4914,12 +4909,12 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -4991,13 +4986,13 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U50">
-        <v>0.6888888888888889</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5007,12 +5002,12 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -5100,19 +5095,19 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5144,16 +5139,16 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L52">
         <v>3</v>
@@ -5162,28 +5157,28 @@
         <v>3</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U52">
-        <v>0.5555555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5193,19 +5188,19 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5286,19 +5281,19 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5379,19 +5374,19 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5420,49 +5415,49 @@
         </is>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55">
         <v>3</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>3</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U55">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5472,19 +5467,19 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5565,19 +5560,19 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5606,16 +5601,16 @@
         </is>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5624,31 +5619,31 @@
         <v>3</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U57">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5658,19 +5653,19 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5751,19 +5746,19 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5828,13 +5823,13 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U59">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -5844,19 +5839,19 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5897,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>3</v>
@@ -5912,19 +5907,22 @@
         <v>3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U60">
-        <v>0.6444444444444445</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -5932,26 +5930,31 @@
       <c r="W60">
         <v>1</v>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5970,49 +5973,46 @@
         </is>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O61">
         <v>3</v>
       </c>
       <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="U61">
-        <v>0.3555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6022,19 +6022,19 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6075,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -6084,28 +6084,28 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>3</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U62">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6115,19 +6115,19 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Scour</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6168,7 +6168,7 @@
         <v>5</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>3</v>
@@ -6195,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U63">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6208,19 +6208,19 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6301,19 +6301,19 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6394,19 +6394,19 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6438,16 +6438,16 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -6456,28 +6456,28 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U66">
-        <v>0.3333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6487,19 +6487,19 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6528,13 +6528,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -6546,31 +6546,31 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U67">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6580,19 +6580,19 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Flow- Scour,Icing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6630,13 +6630,13 @@
         <v>3</v>
       </c>
       <c r="J68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>3</v>
@@ -6645,25 +6645,25 @@
         <v>3</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U68">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -6673,19 +6673,19 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6717,28 +6717,28 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -6753,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U69">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -6766,19 +6766,19 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6810,13 +6810,13 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6825,31 +6825,31 @@
         <v>5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U70">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -6859,19 +6859,19 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6909,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="J71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6927,22 +6927,22 @@
         <v>3</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U71">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -6952,19 +6952,19 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7002,40 +7002,40 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72">
         <v>3</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="U72">
-        <v>0.7333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7045,19 +7045,19 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood,Flow- Scour</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7101,7 +7101,7 @@
         <v>5</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73">
         <v>3</v>
@@ -7125,10 +7125,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U73">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7138,19 +7138,19 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Flow- Scour</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7179,31 +7179,31 @@
         </is>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L74">
         <v>5</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P74">
         <v>3</v>
@@ -7218,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U74">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7231,19 +7231,19 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7324,19 +7324,19 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7417,19 +7417,19 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7461,13 +7461,13 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7479,16 +7479,16 @@
         <v>5</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R77">
         <v>3</v>
@@ -7497,10 +7497,10 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U77">
-        <v>0.7777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7510,19 +7510,19 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7551,13 +7551,13 @@
         </is>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J78">
         <v>5</v>
@@ -7569,31 +7569,31 @@
         <v>5</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S78">
         <v>2</v>
       </c>
       <c r="T78">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="U78">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7603,19 +7603,19 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7696,29 +7696,29 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -7737,46 +7737,49 @@
         </is>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
         <v>2</v>
       </c>
-      <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80">
-        <v>5</v>
-      </c>
-      <c r="M80">
-        <v>3</v>
-      </c>
-      <c r="N80">
-        <v>3</v>
-      </c>
-      <c r="O80">
-        <v>3</v>
-      </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
       <c r="T80">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U80">
-        <v>0.5777777777777777</v>
+        <v>0.6</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -7786,19 +7789,19 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7860,13 +7863,13 @@
         <v>1</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T81">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U81">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -7876,19 +7879,19 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7920,46 +7923,43 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82">
         <v>5</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O82">
         <v>3</v>
       </c>
       <c r="P82">
-        <v>3</v>
-      </c>
-      <c r="Q82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="U82">
-        <v>0.4222222222222222</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -7969,19 +7969,19 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8013,13 +8013,13 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -8037,22 +8037,22 @@
         <v>3</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T83">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U83">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8062,19 +8062,19 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8139,13 +8139,13 @@
         <v>1</v>
       </c>
       <c r="S84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U84">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8155,12 +8155,12 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="S85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U85">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8248,12 +8248,12 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -8325,13 +8325,13 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U86">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8341,12 +8341,12 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -8418,13 +8418,13 @@
         <v>3</v>
       </c>
       <c r="S87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T87">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U87">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V87">
         <v>5</v>
@@ -8432,9 +8432,14 @@
       <c r="W87">
         <v>1</v>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -8506,13 +8511,13 @@
         <v>4</v>
       </c>
       <c r="S88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U88">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V88">
         <v>5</v>
@@ -8522,12 +8527,12 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -8599,13 +8604,13 @@
         <v>3</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U89">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V89">
         <v>5</v>
@@ -8615,12 +8620,12 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Flow- Scour,Icing,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +480,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>unacceptable_and_at_risk_1_3_indiv_habitat_attributes</t>
+          <t>at_risk_2_or_3_indiv_habitat_attributes</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>unacceptable_AND_at_risk_1_to_3_indiv_habitat_attributes</t>
         </is>
       </c>
     </row>
@@ -573,6 +578,11 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -666,6 +676,11 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -759,6 +774,11 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
@@ -852,6 +872,11 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
@@ -945,6 +970,11 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Riparian</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1038,6 +1068,11 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1131,6 +1166,11 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1224,6 +1264,11 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1317,6 +1362,11 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
@@ -1410,6 +1460,11 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1503,6 +1558,11 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>CoarseSubstrate,Riparian</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1596,6 +1656,11 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1689,6 +1754,11 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -1782,6 +1852,11 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -1875,6 +1950,11 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -1968,6 +2048,11 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2061,6 +2146,11 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
@@ -2154,6 +2244,11 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2247,6 +2342,11 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2340,6 +2440,11 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2433,6 +2538,11 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
           <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2524,6 +2634,11 @@
           <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2614,6 +2729,11 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -2707,6 +2827,11 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -2800,6 +2925,11 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
@@ -2893,6 +3023,11 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
@@ -2986,6 +3121,11 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
@@ -3077,6 +3217,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3165,6 +3310,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3253,6 +3403,11 @@
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3341,6 +3496,11 @@
           <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3431,6 +3591,11 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3524,6 +3689,11 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3617,6 +3787,11 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -3710,6 +3885,11 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
           <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -3803,6 +3983,11 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
           <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
@@ -3896,6 +4081,11 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
@@ -3903,7 +4093,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3932,13 +4122,13 @@
         </is>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -3947,34 +4137,34 @@
         <v>3</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="U39">
-        <v>0.8</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -3984,19 +4174,24 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4025,49 +4220,49 @@
         </is>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U40">
-        <v>0.5777777777777777</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4077,19 +4272,24 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4133,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -4142,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>3</v>
@@ -4157,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="T41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U41">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4170,10 +4370,15 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4182,7 +4387,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4267,6 +4472,11 @@
         </is>
       </c>
       <c r="Y42" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4275,7 +4485,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4304,13 +4514,13 @@
         </is>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -4319,10 +4529,10 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4331,22 +4541,22 @@
         <v>3</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>3</v>
       </c>
       <c r="T43">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U43">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4356,19 +4566,24 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4397,13 +4612,13 @@
         </is>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -4415,13 +4630,13 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -4436,10 +4651,10 @@
         <v>3</v>
       </c>
       <c r="T44">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U44">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4449,10 +4664,15 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -4461,7 +4681,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4505,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -4526,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U45">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4542,19 +4762,24 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4564,7 +4789,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4583,49 +4808,49 @@
         </is>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
         <v>2</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
       </c>
       <c r="S46">
         <v>2</v>
       </c>
       <c r="T46">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="U46">
-        <v>0.3777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4633,21 +4858,21 @@
       <c r="W46">
         <v>1</v>
       </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4676,37 +4901,37 @@
         </is>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>5</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>3</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O47">
         <v>5</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -4715,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="T47">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U47">
-        <v>0.6888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4726,16 +4951,26 @@
       <c r="W47">
         <v>1</v>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4779,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4803,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="T48">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U48">
-        <v>0.5333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -4821,14 +5056,19 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4857,13 +5097,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -4875,31 +5115,31 @@
         <v>5</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49">
         <v>3</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U49">
-        <v>0.5777777777777777</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -4909,19 +5149,24 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4971,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -4980,19 +5225,19 @@
         <v>3</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T50">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U50">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5007,24 +5252,29 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5043,49 +5293,49 @@
         </is>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>3</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U51">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5095,19 +5345,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5139,16 +5394,16 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L52">
         <v>3</v>
@@ -5157,28 +5412,28 @@
         <v>3</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U52">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5188,19 +5443,24 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5285,6 +5545,11 @@
         </is>
       </c>
       <c r="Y53" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5293,7 +5558,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5322,49 +5587,49 @@
         </is>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>5</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U54">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5374,10 +5639,15 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5386,7 +5656,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5415,49 +5685,49 @@
         </is>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>5</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>3</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P55">
         <v>3</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U55">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5467,10 +5737,15 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5479,7 +5754,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5508,16 +5783,16 @@
         </is>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5526,31 +5801,31 @@
         <v>3</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U56">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5560,19 +5835,24 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5601,16 +5881,16 @@
         </is>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5619,31 +5899,31 @@
         <v>3</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U57">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5653,19 +5933,24 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5750,6 +6035,11 @@
         </is>
       </c>
       <c r="Y58" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
         <is>
           <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -5758,7 +6048,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5799,10 +6089,10 @@
         <v>3</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59">
         <v>3</v>
@@ -5814,22 +6104,19 @@
         <v>3</v>
       </c>
       <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U59">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -5839,29 +6126,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5880,28 +6172,28 @@
         </is>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5919,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="T60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U60">
-        <v>0.4666666666666667</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -5932,29 +6224,34 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5973,25 +6270,25 @@
         </is>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>3</v>
@@ -6002,17 +6299,20 @@
       <c r="P61">
         <v>3</v>
       </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
       <c r="R61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U61">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6022,19 +6322,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6084,28 +6389,28 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U62">
-        <v>0.3555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6115,10 +6420,15 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6127,7 +6437,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6168,7 +6478,7 @@
         <v>5</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -6180,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>3</v>
@@ -6195,10 +6505,10 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U63">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6208,10 +6518,15 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6220,7 +6535,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6305,6 +6620,11 @@
         </is>
       </c>
       <c r="Y64" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -6313,7 +6633,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6345,16 +6665,16 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -6363,28 +6683,28 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U65">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6394,19 +6714,24 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6435,49 +6760,49 @@
         </is>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <v>3</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P66">
         <v>3</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U66">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6487,19 +6812,24 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6528,28 +6858,28 @@
         </is>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>3</v>
@@ -6567,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="T67">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="U67">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6580,19 +6910,24 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6624,46 +6959,46 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <v>3</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U68">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -6673,19 +7008,24 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6729,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6741,22 +7081,22 @@
         <v>3</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U69">
-        <v>0.5111111111111111</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -6766,19 +7106,24 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6810,10 +7155,10 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -6825,13 +7170,13 @@
         <v>5</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -6846,10 +7191,10 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U70">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -6859,19 +7204,24 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6881,7 +7231,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6912,37 +7262,37 @@
         <v>5</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71">
         <v>3</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P71">
         <v>3</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U71">
-        <v>0.5777777777777777</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V71">
         <v>5</v>
@@ -6952,19 +7302,24 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6974,7 +7329,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7002,10 +7357,10 @@
         <v>3</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L72">
         <v>5</v>
@@ -7014,28 +7369,28 @@
         <v>3</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="U72">
-        <v>0.5111111111111111</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V72">
         <v>5</v>
@@ -7045,19 +7400,24 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7086,31 +7446,31 @@
         </is>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>3</v>
@@ -7125,10 +7485,10 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U73">
-        <v>0.7333333333333333</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V73">
         <v>5</v>
@@ -7138,19 +7498,24 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7179,31 +7544,31 @@
         </is>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>5</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P74">
         <v>3</v>
@@ -7218,10 +7583,10 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U74">
-        <v>0.7777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V74">
         <v>5</v>
@@ -7231,19 +7596,24 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7328,6 +7698,11 @@
         </is>
       </c>
       <c r="Y75" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
         <is>
           <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7336,7 +7711,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7365,49 +7740,49 @@
         </is>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>5</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
         <v>4</v>
       </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>5</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>3</v>
-      </c>
-      <c r="P76">
-        <v>3</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>3</v>
-      </c>
       <c r="S76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U76">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V76">
         <v>5</v>
@@ -7417,19 +7792,24 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7458,49 +7838,49 @@
         </is>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
         <v>4</v>
       </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
-      </c>
-      <c r="P77">
-        <v>3</v>
-      </c>
-      <c r="Q77">
-        <v>3</v>
-      </c>
-      <c r="R77">
-        <v>3</v>
-      </c>
       <c r="S77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U77">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V77">
         <v>5</v>
@@ -7510,29 +7890,34 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7551,49 +7936,46 @@
         </is>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>5</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
         <v>1</v>
       </c>
       <c r="R78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U78">
-        <v>0.8</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V78">
         <v>5</v>
@@ -7603,29 +7985,34 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -7644,19 +8031,19 @@
         </is>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>3</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>5</v>
@@ -7668,25 +8055,22 @@
         <v>3</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>5</v>
-      </c>
-      <c r="Q79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T79">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U79">
-        <v>0.6</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V79">
         <v>5</v>
@@ -7696,29 +8080,34 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -7737,16 +8126,16 @@
         </is>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -7755,31 +8144,31 @@
         <v>5</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q80">
         <v>3</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T80">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U80">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V80">
         <v>5</v>
@@ -7789,19 +8178,24 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7842,16 +8236,16 @@
         <v>5</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>5</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O81">
         <v>3</v>
@@ -7859,6 +8253,9 @@
       <c r="P81">
         <v>1</v>
       </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
       <c r="R81">
         <v>1</v>
       </c>
@@ -7866,10 +8263,10 @@
         <v>3</v>
       </c>
       <c r="T81">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U81">
-        <v>0.6222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V81">
         <v>5</v>
@@ -7879,10 +8276,15 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7891,7 +8293,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7920,46 +8322,49 @@
         </is>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
         <v>2</v>
       </c>
-      <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>3</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82">
-        <v>3</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
       <c r="S82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U82">
-        <v>0.6222222222222222</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V82">
         <v>5</v>
@@ -7969,10 +8374,15 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
@@ -7981,7 +8391,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -8010,16 +8420,16 @@
         </is>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -8034,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>3</v>
@@ -8046,13 +8456,13 @@
         <v>3</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U83">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V83">
         <v>5</v>
@@ -8062,19 +8472,24 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Riparian</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8103,49 +8518,49 @@
         </is>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
         <v>5</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U84">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V84">
         <v>5</v>
@@ -8155,19 +8570,24 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8196,16 +8616,16 @@
         </is>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>3</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8214,31 +8634,31 @@
         <v>5</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <v>3</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S85">
         <v>1</v>
       </c>
       <c r="T85">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U85">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V85">
         <v>5</v>
@@ -8248,19 +8668,24 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -8289,13 +8714,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J86">
         <v>5</v>
@@ -8307,13 +8732,13 @@
         <v>5</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86">
         <v>3</v>
@@ -8328,10 +8753,10 @@
         <v>1</v>
       </c>
       <c r="T86">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U86">
-        <v>0.4888888888888889</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V86">
         <v>5</v>
@@ -8341,289 +8766,15 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G87">
-        <v>5</v>
-      </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
-      <c r="I87">
-        <v>4</v>
-      </c>
-      <c r="J87">
-        <v>3</v>
-      </c>
-      <c r="K87">
-        <v>3</v>
-      </c>
-      <c r="L87">
-        <v>5</v>
-      </c>
-      <c r="M87">
-        <v>3</v>
-      </c>
-      <c r="N87">
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <v>3</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>3</v>
-      </c>
-      <c r="R87">
-        <v>3</v>
-      </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="T87">
-        <v>28</v>
-      </c>
-      <c r="U87">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V87">
-        <v>5</v>
-      </c>
-      <c r="W87">
-        <v>1</v>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G88">
-        <v>5</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>3</v>
-      </c>
-      <c r="J88">
-        <v>3</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>5</v>
-      </c>
-      <c r="M88">
-        <v>3</v>
-      </c>
-      <c r="N88">
-        <v>3</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <v>3</v>
-      </c>
-      <c r="Q88">
-        <v>5</v>
-      </c>
-      <c r="R88">
-        <v>4</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88">
-        <v>26</v>
-      </c>
-      <c r="U88">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V88">
-        <v>5</v>
-      </c>
-      <c r="W88">
-        <v>1</v>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>5</v>
-      </c>
-      <c r="M89">
-        <v>3</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>3</v>
-      </c>
-      <c r="R89">
-        <v>3</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="T89">
-        <v>26</v>
-      </c>
-      <c r="U89">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V89">
-        <v>5</v>
-      </c>
-      <c r="W89">
-        <v>1</v>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
         <is>
           <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,7 +1080,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1124,34 +1124,34 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U8">
-        <v>0.6222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,24 +1161,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1222,34 +1222,34 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U9">
-        <v>0.6222222222222222</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1259,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1305,43 +1305,43 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>26</v>
@@ -1357,24 +1357,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1412,40 +1412,40 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11">
-        <v>0.6444444444444445</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,24 +1455,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1501,28 +1501,28 @@
         </is>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1531,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1553,24 +1553,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1626,22 +1626,22 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U13">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,24 +1651,24 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U14">
-        <v>0.6222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U15">
-        <v>0.6444444444444445</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G16">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1923,19 +1923,19 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U16">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1945,24 +1945,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2018,22 +2018,22 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U17">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2060,7 +2060,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -2119,19 +2119,19 @@
         <v>5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>0.7555555555555555</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -2141,24 +2141,24 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2190,46 +2190,46 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U19">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2239,24 +2239,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2288,46 +2288,46 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20">
         <v>3</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U20">
-        <v>0.5777777777777777</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2335,36 +2335,31 @@
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2383,49 +2378,49 @@
         </is>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
       <c r="S21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U21">
-        <v>0.5777777777777777</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V21">
         <v>5</v>
@@ -2435,34 +2430,34 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2481,37 +2476,37 @@
         </is>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>3</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -2520,10 +2515,10 @@
         <v>3</v>
       </c>
       <c r="T22">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U22">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2533,34 +2528,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2582,40 +2577,40 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
         <v>2</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
       </c>
       <c r="T23">
         <v>32</v>
@@ -2629,21 +2624,26 @@
       <c r="W23">
         <v>1</v>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -2696,19 +2696,19 @@
         <v>3</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>34</v>
@@ -2729,19 +2729,19 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2770,49 +2770,49 @@
         </is>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
       <c r="T25">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U25">
-        <v>0.5777777777777777</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2822,24 +2822,24 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2868,49 +2868,49 @@
         </is>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>3</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <v>5</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U26">
-        <v>0.6888888888888889</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2918,26 +2918,21 @@
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2947,7 +2942,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2966,49 +2961,49 @@
         </is>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>3</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U27">
-        <v>0.7555555555555555</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3016,26 +3011,21 @@
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3045,7 +3035,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3064,13 +3054,13 @@
         </is>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -3079,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -3091,22 +3081,22 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U28">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V28">
         <v>5</v>
@@ -3121,19 +3111,19 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3143,7 +3133,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3162,49 +3152,49 @@
         </is>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29">
         <v>3</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="U29">
-        <v>0.7111111111111111</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3212,21 +3202,26 @@
       <c r="W29">
         <v>1</v>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3236,7 +3231,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3258,22 +3253,22 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>3</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -3282,22 +3277,22 @@
         <v>5</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <v>3</v>
       </c>
       <c r="T30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U30">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V30">
         <v>5</v>
@@ -3305,31 +3300,36 @@
       <c r="W30">
         <v>1</v>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3348,13 +3348,13 @@
         </is>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3366,31 +3366,31 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U31">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V31">
         <v>5</v>
@@ -3398,31 +3398,36 @@
       <c r="W31">
         <v>1</v>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3444,19 +3449,19 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>3</v>
@@ -3465,25 +3470,25 @@
         <v>3</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>3</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U32">
-        <v>0.7333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3491,31 +3496,36 @@
       <c r="W32">
         <v>1</v>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3534,13 +3544,13 @@
         </is>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>5</v>
@@ -3552,19 +3562,19 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>3</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -3573,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="T33">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U33">
-        <v>0.6444444444444445</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3586,34 +3596,34 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3632,13 +3642,13 @@
         </is>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -3647,10 +3657,10 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -3659,22 +3669,22 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>3</v>
       </c>
       <c r="T34">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U34">
-        <v>0.6444444444444445</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3684,34 +3694,34 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3733,46 +3743,46 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U35">
-        <v>0.7555555555555555</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V35">
         <v>5</v>
@@ -3780,26 +3790,21 @@
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
-      </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3809,7 +3814,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3828,25 +3833,25 @@
         </is>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3855,22 +3860,22 @@
         <v>5</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U36">
-        <v>0.6888888888888889</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3880,24 +3885,24 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3907,7 +3912,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3926,25 +3931,25 @@
         </is>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>5</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3953,22 +3958,22 @@
         <v>5</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U37">
-        <v>0.7333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3978,24 +3983,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4005,7 +4010,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4027,46 +4032,46 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38">
         <v>3</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R38">
         <v>3</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="U38">
-        <v>0.6222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4076,24 +4081,24 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4103,7 +4108,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4122,49 +4127,49 @@
         </is>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
         <v>4</v>
       </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>3</v>
-      </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U39">
-        <v>0.5777777777777777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4174,34 +4179,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4220,28 +4225,28 @@
         </is>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40">
         <v>5</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -4250,19 +4255,19 @@
         <v>3</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="U40">
-        <v>0.3777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4272,12 +4277,12 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Stability,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4289,17 +4294,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4318,49 +4323,49 @@
         </is>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>5</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>3</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U41">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V41">
         <v>5</v>
@@ -4370,12 +4375,12 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -4387,17 +4392,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4416,49 +4421,49 @@
         </is>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>5</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>3</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="U42">
-        <v>0.4666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V42">
         <v>5</v>
@@ -4468,12 +4473,12 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -4485,17 +4490,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4514,13 +4519,13 @@
         </is>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>5</v>
@@ -4529,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4541,22 +4546,22 @@
         <v>3</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U43">
-        <v>0.5555555555555556</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4566,34 +4571,34 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4627,34 +4632,34 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44">
         <v>1</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U44">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4664,34 +4669,34 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4710,31 +4715,31 @@
         </is>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45">
         <v>3</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -4746,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U45">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V45">
         <v>5</v>
@@ -4762,34 +4767,34 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4817,10 +4822,10 @@
         <v>3</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>3</v>
@@ -4829,28 +4834,28 @@
         <v>3</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="U46">
-        <v>0.6888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4858,31 +4863,36 @@
       <c r="W46">
         <v>1</v>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4901,16 +4911,16 @@
         </is>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4919,31 +4929,31 @@
         <v>3</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U47">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4953,34 +4963,34 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4999,49 +5009,46 @@
         </is>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>5</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <v>3</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U48">
-        <v>0.5777777777777777</v>
+        <v>0.6</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5051,24 +5058,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5078,7 +5085,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5097,13 +5104,13 @@
         </is>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -5112,34 +5119,34 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>3</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="U49">
-        <v>0.7333333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V49">
         <v>5</v>
@@ -5149,24 +5156,24 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5176,7 +5183,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5195,28 +5202,28 @@
         </is>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>5</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -5225,19 +5232,19 @@
         <v>3</v>
       </c>
       <c r="Q50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="U50">
-        <v>0.7777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5247,34 +5254,34 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5293,25 +5300,25 @@
         </is>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>5</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -5323,19 +5330,19 @@
         <v>3</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U51">
-        <v>0.5555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5345,12 +5352,12 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -5362,17 +5369,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5391,25 +5398,25 @@
         </is>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>3</v>
@@ -5421,19 +5428,19 @@
         <v>3</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S52">
         <v>1</v>
       </c>
       <c r="T52">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="U52">
-        <v>0.5555555555555556</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5443,12 +5450,12 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -5460,17 +5467,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5489,49 +5496,49 @@
         </is>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U53">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V53">
         <v>5</v>
@@ -5541,34 +5548,34 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5587,49 +5594,49 @@
         </is>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U54">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5639,34 +5646,34 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5685,13 +5692,13 @@
         </is>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -5703,31 +5710,31 @@
         <v>3</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55">
         <v>3</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>1</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U55">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V55">
         <v>5</v>
@@ -5737,12 +5744,12 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -5754,17 +5761,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5786,10 +5793,10 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -5798,16 +5805,16 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -5822,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="T56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U56">
-        <v>0.4666666666666667</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5835,34 +5842,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>CoarseSubstrate</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5890,13 +5897,13 @@
         <v>3</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57">
         <v>3</v>
@@ -5908,22 +5915,22 @@
         <v>3</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57">
         <v>1</v>
       </c>
       <c r="T57">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="U57">
-        <v>0.4666666666666667</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5933,34 +5940,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5994,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58">
         <v>3</v>
@@ -6018,10 +6025,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U58">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6036,29 +6043,29 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6086,26 +6093,29 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P59">
         <v>3</v>
       </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
       <c r="R59">
         <v>3</v>
       </c>
@@ -6113,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="T59">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U59">
-        <v>0.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6131,19 +6141,19 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6153,7 +6163,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6172,49 +6182,49 @@
         </is>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="U60">
-        <v>0.3555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6224,24 +6234,24 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6251,7 +6261,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6270,25 +6280,25 @@
         </is>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61">
         <v>3</v>
@@ -6300,19 +6310,19 @@
         <v>3</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U61">
-        <v>0.4666666666666667</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6322,24 +6332,24 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6349,7 +6359,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6368,49 +6378,49 @@
         </is>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62">
         <v>3</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U62">
-        <v>0.3777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6420,24 +6430,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6447,7 +6457,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6466,49 +6476,49 @@
         </is>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N63">
         <v>3</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>3</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U63">
-        <v>0.3777777777777778</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6518,24 +6528,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6545,7 +6555,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6564,49 +6574,49 @@
         </is>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
         <v>2</v>
       </c>
-      <c r="J64">
-        <v>5</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
       <c r="T64">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="U64">
-        <v>0.3777777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6616,24 +6626,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6643,7 +6653,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6662,49 +6672,49 @@
         </is>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="U65">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6714,34 +6724,34 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6769,40 +6779,40 @@
         <v>3</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>3</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>3</v>
       </c>
       <c r="R66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U66">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6812,34 +6822,34 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6858,13 +6868,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -6873,34 +6883,34 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6910,34 +6920,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6956,10 +6966,10 @@
         </is>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>4</v>
@@ -6968,37 +6978,37 @@
         <v>3</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68">
         <v>5</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U68">
-        <v>0.4888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7008,34 +7018,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7054,13 +7064,13 @@
         </is>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -7084,10 +7094,10 @@
         <v>3</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -7123,17 +7133,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7152,16 +7162,16 @@
         </is>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -7170,7 +7180,7 @@
         <v>5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N70">
         <v>3</v>
@@ -7179,22 +7189,22 @@
         <v>3</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U70">
-        <v>0.5111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V70">
         <v>5</v>
@@ -7204,1579 +7214,17 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 01</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>3</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
-      </c>
-      <c r="K71">
-        <v>5</v>
-      </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
-      <c r="M71">
-        <v>3</v>
-      </c>
-      <c r="N71">
-        <v>5</v>
-      </c>
-      <c r="O71">
-        <v>5</v>
-      </c>
-      <c r="P71">
-        <v>3</v>
-      </c>
-      <c r="Q71">
-        <v>3</v>
-      </c>
-      <c r="R71">
-        <v>3</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71">
-        <v>33</v>
-      </c>
-      <c r="U71">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="V71">
-        <v>5</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 02</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72">
-        <v>5</v>
-      </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-      <c r="L72">
-        <v>5</v>
-      </c>
-      <c r="M72">
-        <v>3</v>
-      </c>
-      <c r="N72">
-        <v>5</v>
-      </c>
-      <c r="O72">
-        <v>5</v>
-      </c>
-      <c r="P72">
-        <v>3</v>
-      </c>
-      <c r="Q72">
-        <v>3</v>
-      </c>
-      <c r="R72">
-        <v>3</v>
-      </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72">
-        <v>35</v>
-      </c>
-      <c r="U72">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V72">
-        <v>5</v>
-      </c>
-      <c r="W72">
-        <v>1</v>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 03</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G73">
-        <v>5</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73">
-        <v>3</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73">
-        <v>5</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
-      <c r="Q73">
-        <v>3</v>
-      </c>
-      <c r="R73">
-        <v>3</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <v>28</v>
-      </c>
-      <c r="U73">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V73">
-        <v>5</v>
-      </c>
-      <c r="W73">
-        <v>1</v>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 04</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>3</v>
-      </c>
-      <c r="O74">
-        <v>3</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
-      <c r="Q74">
-        <v>3</v>
-      </c>
-      <c r="R74">
-        <v>3</v>
-      </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74">
-        <v>28</v>
-      </c>
-      <c r="U74">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V74">
-        <v>5</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 05</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="H75">
-        <v>3</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>3</v>
-      </c>
-      <c r="O75">
-        <v>3</v>
-      </c>
-      <c r="P75">
-        <v>3</v>
-      </c>
-      <c r="Q75">
-        <v>3</v>
-      </c>
-      <c r="R75">
-        <v>3</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="T75">
-        <v>28</v>
-      </c>
-      <c r="U75">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V75">
-        <v>5</v>
-      </c>
-      <c r="W75">
-        <v>1</v>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 07</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G76">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
-        <v>5</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>3</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>5</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>4</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>27</v>
-      </c>
-      <c r="U76">
-        <v>0.6</v>
-      </c>
-      <c r="V76">
-        <v>5</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 08</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>5</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <v>5</v>
-      </c>
-      <c r="Q77">
-        <v>3</v>
-      </c>
-      <c r="R77">
-        <v>4</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>27</v>
-      </c>
-      <c r="U77">
-        <v>0.6</v>
-      </c>
-      <c r="V77">
-        <v>5</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 03</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>5</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>3</v>
-      </c>
-      <c r="T78">
-        <v>28</v>
-      </c>
-      <c r="U78">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V78">
-        <v>5</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 04</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <v>5</v>
-      </c>
-      <c r="K79">
-        <v>3</v>
-      </c>
-      <c r="L79">
-        <v>5</v>
-      </c>
-      <c r="M79">
-        <v>3</v>
-      </c>
-      <c r="N79">
-        <v>3</v>
-      </c>
-      <c r="O79">
-        <v>3</v>
-      </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>3</v>
-      </c>
-      <c r="T79">
-        <v>28</v>
-      </c>
-      <c r="U79">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V79">
-        <v>5</v>
-      </c>
-      <c r="W79">
-        <v>1</v>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 05</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>5</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>3</v>
-      </c>
-      <c r="P80">
-        <v>3</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
-      </c>
-      <c r="R80">
-        <v>3</v>
-      </c>
-      <c r="S80">
-        <v>3</v>
-      </c>
-      <c r="T80">
-        <v>21</v>
-      </c>
-      <c r="U80">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="V80">
-        <v>5</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 06</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>5</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>5</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81">
-        <v>1</v>
-      </c>
-      <c r="S81">
-        <v>3</v>
-      </c>
-      <c r="T81">
-        <v>22</v>
-      </c>
-      <c r="U81">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V81">
-        <v>5</v>
-      </c>
-      <c r="W81">
-        <v>1</v>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 08</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G82">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>3</v>
-      </c>
-      <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>5</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>3</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>1</v>
-      </c>
-      <c r="T82">
-        <v>22</v>
-      </c>
-      <c r="U82">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V82">
-        <v>5</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 09</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
-      <c r="J83">
-        <v>5</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>5</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83">
-        <v>3</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
-      </c>
-      <c r="R83">
-        <v>3</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83">
-        <v>22</v>
-      </c>
-      <c r="U83">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="V83">
-        <v>5</v>
-      </c>
-      <c r="W83">
-        <v>1</v>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>Riparian</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 10</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G84">
-        <v>5</v>
-      </c>
-      <c r="H84">
-        <v>3</v>
-      </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
-      <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84">
-        <v>3</v>
-      </c>
-      <c r="L84">
-        <v>5</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>3</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
-      <c r="P84">
-        <v>3</v>
-      </c>
-      <c r="Q84">
-        <v>3</v>
-      </c>
-      <c r="R84">
-        <v>3</v>
-      </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84">
-        <v>28</v>
-      </c>
-      <c r="U84">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="V84">
-        <v>5</v>
-      </c>
-      <c r="W84">
-        <v>1</v>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 11</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G85">
-        <v>5</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
-      <c r="J85">
-        <v>3</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>5</v>
-      </c>
-      <c r="M85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>3</v>
-      </c>
-      <c r="O85">
-        <v>3</v>
-      </c>
-      <c r="P85">
-        <v>3</v>
-      </c>
-      <c r="Q85">
-        <v>5</v>
-      </c>
-      <c r="R85">
-        <v>4</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85">
-        <v>26</v>
-      </c>
-      <c r="U85">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V85">
-        <v>5</v>
-      </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Wenatchee River Beaver 12</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>5</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
-      <c r="N86">
-        <v>3</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>3</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86">
-        <v>3</v>
-      </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="T86">
-        <v>26</v>
-      </c>
-      <c r="U86">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="V86">
-        <v>5</v>
-      </c>
-      <c r="W86">
-        <v>1</v>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr">
-        <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_RESTORATOIN_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U6">
-        <v>0.7333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1124,34 +1124,34 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U8">
-        <v>0.6444444444444445</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1161,24 +1161,24 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1222,34 +1222,34 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U9">
-        <v>0.6444444444444445</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1259,24 +1259,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1320,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -1341,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U10">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -1357,24 +1357,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1421,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U11">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -1455,24 +1455,24 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1501,16 +1501,16 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1519,31 +1519,31 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U12">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -1553,24 +1553,24 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1620,28 +1620,28 @@
         <v>3</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1651,24 +1651,24 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U14">
-        <v>0.5555555555555556</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="T15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U15">
-        <v>0.7555555555555555</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G16">
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1923,19 +1923,19 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U16">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1945,24 +1945,24 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2018,22 +2018,22 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U17">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -2060,7 +2060,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2089,76 +2089,76 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>3</v>
-      </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U18">
-        <v>0.5777777777777777</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V18">
         <v>5</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2190,46 +2190,46 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U19">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -2239,24 +2239,24 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2288,46 +2288,46 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>2</v>
       </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
       <c r="S20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U20">
-        <v>0.7111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V20">
         <v>5</v>
@@ -2335,31 +2335,36 @@
       <c r="W20">
         <v>1</v>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2378,19 +2383,19 @@
         </is>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>3</v>
@@ -2399,22 +2404,22 @@
         <v>5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>34</v>
@@ -2426,38 +2431,33 @@
         <v>5</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Cover-Wood</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2476,13 +2476,13 @@
         </is>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2491,34 +2491,34 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>5</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U22">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2528,34 +2528,34 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2592,31 +2592,31 @@
         <v>5</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U23">
-        <v>0.7111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2626,34 +2626,34 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2690,31 +2690,31 @@
         <v>5</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U24">
-        <v>0.7555555555555555</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2724,34 +2724,34 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2788,31 +2788,31 @@
         <v>5</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="U25">
-        <v>0.7555555555555555</v>
+        <v>0.6</v>
       </c>
       <c r="V25">
         <v>5</v>
@@ -2822,34 +2822,34 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2868,43 +2868,43 @@
         </is>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>4</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <v>30</v>
@@ -2918,21 +2918,26 @@
       <c r="W26">
         <v>1</v>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2942,7 +2947,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2961,49 +2966,49 @@
         </is>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>5</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>3</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U27">
-        <v>0.7333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -3011,21 +3016,26 @@
       <c r="W27">
         <v>1</v>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3035,7 +3045,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3054,19 +3064,19 @@
         </is>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -3075,55 +3085,55 @@
         <v>5</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U28">
-        <v>0.6444444444444445</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V28">
         <v>5</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3133,7 +3143,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3173,28 +3183,28 @@
         <v>5</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U29">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V29">
         <v>5</v>
@@ -3204,24 +3214,24 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3250,13 +3260,13 @@
         </is>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>5</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -3265,16 +3275,16 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>5</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -3286,50 +3296,50 @@
         <v>5</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U30">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V30">
         <v>5</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3351,10 +3361,10 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3363,71 +3373,71 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>5</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31">
         <v>3</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U31">
-        <v>0.6222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3449,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -3461,34 +3471,34 @@
         <v>3</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
         <v>3</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32">
         <v>3</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U32">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V32">
         <v>5</v>
@@ -3498,34 +3508,34 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3544,49 +3554,49 @@
         </is>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P33">
         <v>3</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S33">
         <v>3</v>
       </c>
       <c r="T33">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="U33">
-        <v>0.4666666666666667</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V33">
         <v>5</v>
@@ -3596,34 +3606,34 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3642,49 +3652,49 @@
         </is>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>5</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S34">
         <v>3</v>
       </c>
       <c r="T34">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="U34">
-        <v>0.4888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V34">
         <v>5</v>
@@ -3694,34 +3704,34 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3752,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -3761,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <v>5</v>
@@ -3770,51 +3780,51 @@
         <v>3</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U35">
-        <v>0.6888888888888889</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V35">
         <v>5</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3833,13 +3843,13 @@
         </is>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <v>5</v>
@@ -3851,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -3869,13 +3879,13 @@
         <v>2</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U36">
-        <v>0.5333333333333333</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V36">
         <v>5</v>
@@ -3885,34 +3895,34 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3931,13 +3941,13 @@
         </is>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>5</v>
@@ -3946,34 +3956,34 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U37">
-        <v>0.5777777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V37">
         <v>5</v>
@@ -3983,24 +3993,24 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4010,7 +4020,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4029,49 +4039,49 @@
         </is>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <v>5</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P38">
         <v>3</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U38">
-        <v>0.7333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="V38">
         <v>5</v>
@@ -4081,24 +4091,24 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4108,7 +4118,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4127,49 +4137,49 @@
         </is>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <v>5</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P39">
         <v>3</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U39">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V39">
         <v>5</v>
@@ -4179,34 +4189,34 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4225,13 +4235,13 @@
         </is>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>5</v>
@@ -4243,31 +4253,31 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>3</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <v>3</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U40">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="V40">
         <v>5</v>
@@ -4277,34 +4287,34 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4323,13 +4333,13 @@
         </is>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -4341,68 +4351,68 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41">
         <v>3</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="U41">
-        <v>0.5555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V41">
         <v>5</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4424,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -4436,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>3</v>
@@ -4445,16 +4455,16 @@
         <v>3</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>3</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -4473,34 +4483,34 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4534,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -4543,25 +4553,25 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U43">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="V43">
         <v>5</v>
@@ -4571,34 +4581,34 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4653,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T44">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U44">
-        <v>0.4222222222222222</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -4669,7 +4679,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -4679,24 +4689,24 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4715,43 +4725,43 @@
         </is>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45">
         <v>21</v>
@@ -4767,34 +4777,34 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4822,19 +4832,19 @@
         <v>3</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>3</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>3</v>
@@ -4849,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U46">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V46">
         <v>5</v>
@@ -4865,34 +4875,34 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4911,31 +4921,31 @@
         </is>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -4947,13 +4957,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U47">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V47">
         <v>5</v>
@@ -4963,34 +4973,34 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5009,46 +5019,49 @@
         </is>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="U48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="V48">
         <v>5</v>
@@ -5058,24 +5071,24 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5085,7 +5098,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5104,76 +5117,76 @@
         </is>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
         <v>2</v>
       </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
-      </c>
       <c r="S49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T49">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="U49">
-        <v>0.3555555555555556</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V49">
         <v>5</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5183,7 +5196,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5214,7 +5227,7 @@
         <v>5</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -5226,25 +5239,25 @@
         <v>3</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T50">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U50">
-        <v>0.4666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V50">
         <v>5</v>
@@ -5254,24 +5267,24 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5281,7 +5294,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5321,28 +5334,28 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R51">
         <v>2</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T51">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U51">
-        <v>0.3777777777777778</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V51">
         <v>5</v>
@@ -5352,24 +5365,24 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5379,7 +5392,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5398,13 +5411,13 @@
         </is>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -5416,31 +5429,31 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>3</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T52">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="U52">
-        <v>0.3777777777777778</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V52">
         <v>5</v>
@@ -5450,34 +5463,34 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5496,86 +5509,86 @@
         </is>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="U53">
-        <v>0.3333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V53">
         <v>5</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5603,40 +5616,40 @@
         <v>3</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>3</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U54">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V54">
         <v>5</v>
@@ -5646,34 +5659,34 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5704,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55">
         <v>3</v>
@@ -5713,19 +5726,19 @@
         <v>3</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -5744,12 +5757,12 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -5761,17 +5774,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5793,22 +5806,22 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -5817,22 +5830,22 @@
         <v>1</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U56">
-        <v>0.4888888888888889</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V56">
         <v>5</v>
@@ -5842,34 +5855,34 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>CoarseSubstrate</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5888,13 +5901,13 @@
         </is>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5903,13 +5916,13 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>3</v>
@@ -5927,10 +5940,10 @@
         <v>1</v>
       </c>
       <c r="T57">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="U57">
-        <v>0.5777777777777777</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V57">
         <v>5</v>
@@ -5940,34 +5953,34 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5986,28 +5999,28 @@
         </is>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>3</v>
@@ -6025,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="T58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U58">
-        <v>0.5111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="V58">
         <v>5</v>
@@ -6038,34 +6051,34 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6093,40 +6106,40 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="U59">
-        <v>0.7333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V59">
         <v>5</v>
@@ -6136,34 +6149,34 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6191,40 +6204,40 @@
         <v>3</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>1</v>
       </c>
       <c r="T60">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="U60">
-        <v>0.7777777777777778</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V60">
         <v>5</v>
@@ -6234,34 +6247,34 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6280,13 +6293,13 @@
         </is>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -6295,34 +6308,34 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="U61">
-        <v>0.6222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V61">
         <v>5</v>
@@ -6332,34 +6345,34 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6378,25 +6391,25 @@
         </is>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>3</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
         <v>5</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>3</v>
@@ -6407,9 +6420,6 @@
       <c r="P62">
         <v>3</v>
       </c>
-      <c r="Q62">
-        <v>3</v>
-      </c>
       <c r="R62">
         <v>3</v>
       </c>
@@ -6417,10 +6427,10 @@
         <v>1</v>
       </c>
       <c r="T62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U62">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="V62">
         <v>5</v>
@@ -6430,24 +6440,24 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6457,7 +6467,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6476,49 +6486,49 @@
         </is>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U63">
-        <v>0.6222222222222222</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="V63">
         <v>5</v>
@@ -6528,24 +6538,24 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6555,7 +6565,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6574,49 +6584,49 @@
         </is>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>5</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>3</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U64">
-        <v>0.6</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -6626,24 +6636,24 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6653,7 +6663,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6672,13 +6682,13 @@
         </is>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -6687,10 +6697,10 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>3</v>
@@ -6699,22 +6709,22 @@
         <v>1</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U65">
-        <v>0.6</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V65">
         <v>5</v>
@@ -6724,34 +6734,34 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6770,13 +6780,13 @@
         </is>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -6785,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -6797,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>2</v>
@@ -6809,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="T66">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U66">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V66">
         <v>5</v>
@@ -6822,7 +6832,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -6832,24 +6842,24 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6868,13 +6878,13 @@
         </is>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>5</v>
@@ -6883,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -6898,19 +6908,19 @@
         <v>3</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U67">
-        <v>0.4888888888888889</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="V67">
         <v>5</v>
@@ -6920,34 +6930,34 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6966,13 +6976,13 @@
         </is>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>3</v>
@@ -6981,34 +6991,34 @@
         <v>3</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O68">
         <v>3</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="U68">
-        <v>0.6222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V68">
         <v>5</v>
@@ -7018,34 +7028,34 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7064,22 +7074,22 @@
         </is>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -7088,7 +7098,7 @@
         <v>3</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P69">
         <v>3</v>
@@ -7103,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U69">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V69">
         <v>5</v>
@@ -7116,115 +7126,2261 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>23</v>
+      </c>
+      <c r="U70">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="V70">
+        <v>5</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 09</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>18</v>
+      </c>
+      <c r="U71">
+        <v>0.4</v>
+      </c>
+      <c r="V71">
+        <v>5</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 10</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>24</v>
+      </c>
+      <c r="U72">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V72">
+        <v>5</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>21</v>
+      </c>
+      <c r="U73">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>3</v>
+      </c>
+      <c r="Q74">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>33</v>
+      </c>
+      <c r="U74">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <v>3</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>35</v>
+      </c>
+      <c r="U75">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <v>3</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+      <c r="P76">
+        <v>3</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>26</v>
+      </c>
+      <c r="U76">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V76">
+        <v>5</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 04</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>3</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>26</v>
+      </c>
+      <c r="U77">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V77">
+        <v>5</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>26</v>
+      </c>
+      <c r="U78">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V78">
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>35</v>
+      </c>
+      <c r="U79">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V79">
+        <v>5</v>
+      </c>
+      <c r="W79">
+        <v>3</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 07</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>4</v>
+      </c>
+      <c r="S80">
+        <v>5</v>
+      </c>
+      <c r="T80">
+        <v>30</v>
+      </c>
+      <c r="U80">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 08</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>5</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>4</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>30</v>
+      </c>
+      <c r="U81">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V81">
+        <v>5</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G70">
-        <v>5</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82">
+        <v>3</v>
+      </c>
+      <c r="P82">
+        <v>5</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
         <v>4</v>
       </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>5</v>
-      </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-      <c r="N70">
-        <v>3</v>
-      </c>
-      <c r="O70">
-        <v>3</v>
-      </c>
-      <c r="P70">
-        <v>3</v>
-      </c>
-      <c r="Q70">
-        <v>3</v>
-      </c>
-      <c r="R70">
-        <v>3</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
-        <v>30</v>
-      </c>
-      <c r="U70">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="V70">
-        <v>5</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70" t="inlineStr">
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>34</v>
+      </c>
+      <c r="U82">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+      <c r="W82">
+        <v>3</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 03</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>3</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>29</v>
+      </c>
+      <c r="U83">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="V83">
+        <v>5</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 04</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>29</v>
+      </c>
+      <c r="U84">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 05</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>20</v>
+      </c>
+      <c r="U85">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>22</v>
+      </c>
+      <c r="U86">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V86">
+        <v>5</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 07</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>3</v>
+      </c>
+      <c r="T87">
+        <v>22</v>
+      </c>
+      <c r="U87">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V87">
+        <v>5</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>22</v>
+      </c>
+      <c r="U88">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>22</v>
+      </c>
+      <c r="U89">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>1</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>Riparian</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>3</v>
+      </c>
+      <c r="P90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>28</v>
+      </c>
+      <c r="U90">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>25</v>
+      </c>
+      <c r="U91">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+      <c r="W91">
+        <v>1</v>
+      </c>
+      <c r="X91" t="inlineStr">
         <is>
           <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>26</v>
+      </c>
+      <c r="U92">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
     </row>
